--- a/exp_result/d1_distinct_sysucloud.xlsx
+++ b/exp_result/d1_distinct_sysucloud.xlsx
@@ -5015,7 +5015,7 @@
   <dimension ref="A2:IV36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8677,8 +8677,8 @@
   <sheetPr/>
   <dimension ref="A1:IV59"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/exp_result/d1_distinct_sysucloud.xlsx
+++ b/exp_result/d1_distinct_sysucloud.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386">
   <si>
     <t>dataset: d2E</t>
   </si>
@@ -94,6 +94,9 @@
     <t>1mins, 37sec</t>
   </si>
   <si>
+    <t>1mins, 47sec</t>
+  </si>
+  <si>
     <t>10^7</t>
   </si>
   <si>
@@ -148,6 +151,9 @@
     <t>9mins, 7sec</t>
   </si>
   <si>
+    <t>43mins, 12sec</t>
+  </si>
+  <si>
     <t>10^9</t>
   </si>
   <si>
@@ -176,6 +182,9 @@
   </si>
   <si>
     <t>1hrs, 4mins, 8sec</t>
+  </si>
+  <si>
+    <t>5hrs, 40mins, 30sec</t>
   </si>
   <si>
     <t>Total running time</t>
@@ -322,6 +331,9 @@
   </si>
   <si>
     <t>Naive</t>
+  </si>
+  <si>
+    <t>Naive_Ba</t>
   </si>
   <si>
     <t>reducer input records</t>
@@ -651,6 +663,9 @@
     <t>1mins, 3sec</t>
   </si>
   <si>
+    <t>1mins, 56sec</t>
+  </si>
+  <si>
     <t>22mins, 0sec</t>
   </si>
   <si>
@@ -670,6 +685,9 @@
   </si>
   <si>
     <t>3mins, 25sec</t>
+  </si>
+  <si>
+    <t>12mins, 7sec</t>
   </si>
   <si>
     <t>1hrs, 2mins, 50sec</t>
@@ -697,6 +715,9 @@
   </si>
   <si>
     <t>10mins, 30sec</t>
+  </si>
+  <si>
+    <t>34mins, 49sec</t>
   </si>
   <si>
     <t>7hrs, 11mins, 22sec</t>
@@ -1203,11 +1224,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* \-_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* \-_ ;_ @_ "/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1219,12 +1240,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1373,29 +1394,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1537,10 +1558,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -4955,8 +4982,8 @@
   <sheetPr/>
   <dimension ref="A2:IV36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5285,13 +5312,15 @@
       <c r="H6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="54" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="18"/>
+      <c r="K6" s="47" t="s">
+        <v>24</v>
+      </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
@@ -5542,7 +5571,7 @@
     </row>
     <row r="8" ht="21" customHeight="1" spans="1:255">
       <c r="A8" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -5824,33 +5853,35 @@
         <v>14</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="32" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="52" t="s">
         <v>31</v>
       </c>
+      <c r="I9" s="54" t="s">
+        <v>32</v>
+      </c>
       <c r="J9" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>15</v>
+      </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -6101,7 +6132,7 @@
     </row>
     <row r="11" s="30" customFormat="1" ht="21" customHeight="1" spans="1:256">
       <c r="A11" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -6384,33 +6415,35 @@
         <v>14</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="52" t="s">
         <v>40</v>
       </c>
+      <c r="I12" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="J12" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="18"/>
+        <v>42</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>43</v>
+      </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
@@ -6661,7 +6694,7 @@
     </row>
     <row r="14" ht="21" customHeight="1" spans="1:255">
       <c r="A14" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -6943,33 +6976,35 @@
         <v>14</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>52</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>54</v>
+      </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="38"/>
@@ -7217,10 +7252,10 @@
     </row>
     <row r="17" ht="21.6" customHeight="1" spans="1:7">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="1:10">
@@ -7229,23 +7264,23 @@
         <v>4</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" spans="1:10">
@@ -7279,7 +7314,7 @@
     </row>
     <row r="20" ht="21" customHeight="1" spans="1:10">
       <c r="A20" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="11">
         <v>23.85</v>
@@ -7294,7 +7329,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20" s="11">
         <v>0.6</v>
@@ -7308,7 +7343,7 @@
     </row>
     <row r="21" ht="21" customHeight="1" spans="1:10">
       <c r="A21" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="11">
         <v>54.3</v>
@@ -7323,7 +7358,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H21" s="11">
         <v>0.85</v>
@@ -7337,7 +7372,7 @@
     </row>
     <row r="22" ht="21" customHeight="1" spans="1:10">
       <c r="A22" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="11">
         <v>400.7</v>
@@ -7352,7 +7387,7 @@
         <v>170.6</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H22" s="11">
         <v>5.6</v>
@@ -7366,13 +7401,13 @@
     </row>
     <row r="26" ht="18" spans="1:10">
       <c r="A26" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>10</v>
@@ -7381,7 +7416,7 @@
         <v>8</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>10</v>
@@ -7390,7 +7425,7 @@
         <v>8</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>10</v>
@@ -7401,31 +7436,31 @@
         <v>14</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="49" t="s">
+      <c r="F27" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="J27" s="49" t="s">
+      <c r="G27" s="51" t="s">
         <v>68</v>
+      </c>
+      <c r="H27" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="51" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -7433,13 +7468,13 @@
     </row>
     <row r="31" ht="18" spans="1:10">
       <c r="A31" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>10</v>
@@ -7448,7 +7483,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>10</v>
@@ -7457,7 +7492,7 @@
         <v>8</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>10</v>
@@ -7467,46 +7502,46 @@
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="49" t="s">
+      <c r="B32" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="C32" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="49" t="s">
+      <c r="D32" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="E32" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="I32" s="49" t="s">
+      <c r="F32" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="J32" s="49" t="s">
+      <c r="G32" s="51" t="s">
         <v>80</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" ht="18" spans="1:7">
       <c r="A35" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C35" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E35" s="45" t="s">
         <v>12</v>
@@ -7522,23 +7557,23 @@
       <c r="A36" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="51" t="s">
+      <c r="B36" s="52" t="s">
         <v>86</v>
       </c>
+      <c r="C36" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="F36" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="47" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -7553,8 +7588,8 @@
   <sheetPr/>
   <dimension ref="A2:IT95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7580,321 +7615,439 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="27" customHeight="1" spans="1:3">
+    <row r="5" ht="27" customHeight="1" spans="1:7">
       <c r="A5" s="16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
+      <c r="E5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:254">
       <c r="A6" s="1"/>
       <c r="B6" s="33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>14</v>
+      </c>
       <c r="IT6" s="14"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:254">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" s="4">
         <v>117638487</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="E7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="50">
+        <v>10123017</v>
+      </c>
+      <c r="G7" s="6"/>
       <c r="IT7" s="14"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:254">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" s="5">
         <v>132840790</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="E8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="50">
+        <v>10247603</v>
+      </c>
+      <c r="G8" s="6"/>
       <c r="IT8" s="14"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:254">
       <c r="A9" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" s="5">
         <v>119838342</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="E9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="50">
+        <v>10210255</v>
+      </c>
+      <c r="G9" s="6"/>
       <c r="IT9" s="14"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:254">
       <c r="A10" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" s="5">
         <v>150513176</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="E10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="50">
+        <v>10329974</v>
+      </c>
+      <c r="G10" s="6"/>
       <c r="IT10" s="14"/>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:254">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" s="5">
         <v>115966768</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="E11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="50">
+        <v>1606799164</v>
+      </c>
+      <c r="G11" s="6"/>
       <c r="IT11" s="14"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:254">
       <c r="A12" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" s="5">
         <v>433191195</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="G12" s="15"/>
+      <c r="E12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="50">
+        <v>16978436</v>
+      </c>
+      <c r="G12" s="6"/>
       <c r="IT12" s="14"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:254">
       <c r="A13" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" s="5">
         <v>160335384</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="E13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="50">
+        <v>10208593</v>
+      </c>
+      <c r="G13" s="6"/>
       <c r="IT13" s="14"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:254">
       <c r="A14" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" s="5">
         <v>108301120</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="E14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="50">
+        <v>22987023</v>
+      </c>
+      <c r="G14" s="6"/>
       <c r="IT14" s="14"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:254">
       <c r="A15" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" s="5">
         <v>175086630</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="E15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="50">
+        <v>30299997</v>
+      </c>
+      <c r="G15" s="6"/>
       <c r="IT15" s="14"/>
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:254">
       <c r="A16" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B16" s="5">
         <v>105033635</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D16" s="14"/>
-      <c r="G16" s="15"/>
+      <c r="E16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="50">
+        <v>33787213</v>
+      </c>
+      <c r="G16" s="6"/>
       <c r="IT16" s="14"/>
     </row>
     <row r="17" ht="27" customHeight="1" spans="1:254">
       <c r="A17" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B17" s="5">
         <v>931231263</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="G17" s="15"/>
+      <c r="E17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="50">
+        <v>828514944</v>
+      </c>
+      <c r="G17" s="6"/>
       <c r="IT17" s="14"/>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:254">
       <c r="A18" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B18" s="5">
         <v>157665218</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D18" s="14"/>
-      <c r="G18" s="15"/>
+      <c r="E18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="50">
+        <v>81361133</v>
+      </c>
+      <c r="G18" s="6"/>
       <c r="IT18" s="14"/>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:254">
       <c r="A19" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5">
         <v>120801641</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D19" s="14"/>
-      <c r="G19" s="15"/>
+      <c r="E19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="50">
+        <v>30125649</v>
+      </c>
+      <c r="G19" s="6"/>
       <c r="IT19" s="14"/>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:254">
       <c r="A20" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5">
         <v>256547769</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D20" s="14"/>
-      <c r="G20" s="15"/>
+      <c r="E20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="50">
+        <v>338881868</v>
+      </c>
+      <c r="G20" s="6"/>
       <c r="IT20" s="14"/>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:254">
       <c r="A21" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B21" s="5">
         <v>130335158</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D21" s="14"/>
-      <c r="G21" s="15"/>
+      <c r="E21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="50">
+        <v>30122450</v>
+      </c>
+      <c r="G21" s="6"/>
       <c r="IT21" s="14"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:254">
       <c r="A22" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5">
         <v>148617661</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D22" s="14"/>
-      <c r="G22" s="15"/>
+      <c r="E22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="50">
+        <v>30024287</v>
+      </c>
+      <c r="G22" s="6"/>
       <c r="IT22" s="14"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:254">
       <c r="A23" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B23" s="5">
         <v>339858259</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D23" s="14"/>
-      <c r="G23" s="15"/>
+      <c r="E23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="50">
+        <v>828425423</v>
+      </c>
+      <c r="G23" s="6"/>
       <c r="IT23" s="14"/>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:254">
       <c r="A24" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5">
         <v>170647805</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D24" s="14"/>
-      <c r="G24" s="15"/>
+      <c r="E24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="50">
+        <v>30187878</v>
+      </c>
+      <c r="G24" s="6"/>
       <c r="IT24" s="14"/>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:254">
       <c r="A25" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B25" s="5">
         <v>118565721</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D25" s="14"/>
-      <c r="G25" s="15"/>
+      <c r="E25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="50">
+        <v>10041789</v>
+      </c>
+      <c r="G25" s="6"/>
       <c r="IT25" s="14"/>
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:254">
       <c r="A26" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B26" s="5">
         <v>182291801</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D26" s="14"/>
-      <c r="G26" s="15"/>
+      <c r="E26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="50">
+        <v>30339703</v>
+      </c>
+      <c r="G26" s="6"/>
       <c r="IT26" s="14"/>
     </row>
     <row r="28" ht="27" customHeight="1" spans="1:3">
       <c r="A28" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -7902,7 +8055,7 @@
     <row r="29" ht="27" customHeight="1" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>14</v>
@@ -7910,227 +8063,227 @@
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:3">
       <c r="A30" s="29" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B30" s="5">
         <v>207099135</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:3">
       <c r="A31" s="29" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:3">
       <c r="A32" s="29" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B32" s="5">
         <v>212526355</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:3">
       <c r="A33" s="29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B33" s="5">
         <v>159111680</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:3">
       <c r="A34" s="29" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B34" s="5">
         <v>182746967</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:3">
       <c r="A35" s="29" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B35" s="5">
         <v>166685763</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:3">
       <c r="A36" s="29" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B36" s="5">
         <v>191359542</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" ht="27" customHeight="1" spans="1:3">
       <c r="A37" s="29" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B37" s="5">
         <v>169673990</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" ht="27" customHeight="1" spans="1:3">
       <c r="A38" s="29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B38" s="5">
         <v>211150641</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" ht="27" customHeight="1" spans="1:3">
       <c r="A39" s="29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B39" s="5">
         <v>186080427</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" ht="27" customHeight="1" spans="1:3">
       <c r="A40" s="29" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B40" s="5">
         <v>191903436</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" ht="27" customHeight="1" spans="1:3">
       <c r="A41" s="29" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B41" s="5">
         <v>231903624</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" ht="27" customHeight="1" spans="1:3">
       <c r="A42" s="29" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B42" s="5">
         <v>194417978</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" ht="27" customHeight="1" spans="1:3">
       <c r="A43" s="29" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B43" s="5">
         <v>229687820</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" ht="27" customHeight="1" spans="1:3">
       <c r="A44" s="29" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B44" s="5">
         <v>204385641</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" ht="27" customHeight="1" spans="1:3">
       <c r="A45" s="29" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B45" s="5">
         <v>238559372</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" ht="27" customHeight="1" spans="1:3">
       <c r="A46" s="29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B46" s="5">
         <v>207432791</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" ht="27" customHeight="1" spans="1:3">
       <c r="A47" s="29" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B47" s="5">
         <v>229145449</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" ht="27" customHeight="1" spans="1:3">
       <c r="A48" s="29" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B48" s="5">
         <v>196857801</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" ht="27" customHeight="1" spans="1:3">
       <c r="A49" s="29" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B49" s="5">
         <v>212827921</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" ht="27" customHeight="1" spans="1:3">
       <c r="A51" s="17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -8138,7 +8291,7 @@
     <row r="52" ht="27" customHeight="1" spans="1:3">
       <c r="A52" s="7"/>
       <c r="B52" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>14</v>
@@ -8146,227 +8299,227 @@
     </row>
     <row r="53" ht="27" customHeight="1" spans="1:3">
       <c r="A53" s="29" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B53" s="5">
         <v>199126653</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" ht="27" customHeight="1" spans="1:3">
       <c r="A54" s="29" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B54" s="5">
         <v>199288073</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" ht="27" customHeight="1" spans="1:3">
       <c r="A55" s="29" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B55" s="5">
         <v>199371413</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" ht="27" customHeight="1" spans="1:3">
       <c r="A56" s="29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B56" s="5">
         <v>201130293</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" ht="27" customHeight="1" spans="1:3">
       <c r="A57" s="29" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B57" s="5">
         <v>201047791</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" ht="27" customHeight="1" spans="1:3">
       <c r="A58" s="29" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B58" s="5">
         <v>198959637</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" ht="27" customHeight="1" spans="1:3">
       <c r="A59" s="29" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B59" s="5">
         <v>199876056</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" ht="27" customHeight="1" spans="1:3">
       <c r="A60" s="29" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B60" s="5">
         <v>201050169</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" ht="27" customHeight="1" spans="1:3">
       <c r="A61" s="29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B61" s="5">
         <v>200614168</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" ht="27" customHeight="1" spans="1:3">
       <c r="A62" s="29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B62" s="5">
         <v>199486549</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" ht="27" customHeight="1" spans="1:3">
       <c r="A63" s="29" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B63" s="5">
         <v>199102932</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" ht="27" customHeight="1" spans="1:3">
       <c r="A64" s="29" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B64" s="5">
         <v>199324786</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" ht="27" customHeight="1" spans="1:3">
       <c r="A65" s="29" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B65" s="5">
         <v>199321246</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" ht="27" customHeight="1" spans="1:3">
       <c r="A66" s="29" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B66" s="5">
         <v>201175722</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" ht="27" customHeight="1" spans="1:3">
       <c r="A67" s="29" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B67" s="5">
         <v>201066857</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" ht="27" customHeight="1" spans="1:3">
       <c r="A68" s="29" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B68" s="5">
         <v>199090559</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" ht="27" customHeight="1" spans="1:3">
       <c r="A69" s="29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B69" s="5">
         <v>199292376</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" ht="27" customHeight="1" spans="1:3">
       <c r="A70" s="29" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B70" s="5">
         <v>199351204</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" ht="27" customHeight="1" spans="1:3">
       <c r="A71" s="29" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B71" s="5">
         <v>201184186</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" ht="27" customHeight="1" spans="1:3">
       <c r="A72" s="29" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B72" s="5">
         <v>201123383</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" ht="27" customHeight="1" spans="1:3">
       <c r="A74" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -8374,7 +8527,7 @@
     <row r="75" ht="27" customHeight="1" spans="1:3">
       <c r="A75" s="18"/>
       <c r="B75" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
@@ -8382,227 +8535,228 @@
     </row>
     <row r="76" ht="27" customHeight="1" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B76" s="5">
         <v>10123016</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" ht="27" customHeight="1" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B77" s="5">
         <v>10247601</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" ht="27" customHeight="1" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B78" s="5">
         <v>10210255</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" ht="27" customHeight="1" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B79" s="5">
         <v>10329973</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" ht="27" customHeight="1" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B80" s="5">
         <v>12206437</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" ht="27" customHeight="1" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B81" s="5">
         <v>16976684</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" ht="27" customHeight="1" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B82" s="5">
         <v>10208592</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" ht="27" customHeight="1" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B83" s="5">
         <v>22954240</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" ht="27" customHeight="1" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B84" s="5">
         <v>30297870</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" ht="27" customHeight="1" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B85" s="5">
         <v>33773086</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" ht="27" customHeight="1" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B86" s="5">
         <v>31216537</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" ht="27" customHeight="1" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B87" s="5">
         <v>81293149</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" ht="27" customHeight="1" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B88" s="5">
         <v>30123548</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" ht="27" customHeight="1" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B89" s="5">
         <v>338573815</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" ht="27" customHeight="1" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B90" s="5">
         <v>30120409</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" ht="27" customHeight="1" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B91" s="5">
         <v>30022187</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" ht="27" customHeight="1" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B92" s="5">
         <v>31126911</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" ht="27" customHeight="1" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" s="5">
         <v>30185817</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" ht="27" customHeight="1" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B94" s="5">
         <v>10041788</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" ht="27" customHeight="1" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B95" s="5">
         <v>30337604</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A74:C74"/>
@@ -8618,8 +8772,8 @@
   <sheetPr/>
   <dimension ref="A1:IV59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8891,7 +9045,7 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:255">
       <c r="A2" s="15" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -9950,33 +10104,35 @@
         <v>14</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="K6" s="38"/>
+        <v>200</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>201</v>
+      </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
@@ -10481,7 +10637,7 @@
     </row>
     <row r="8" ht="21" customHeight="1" spans="1:255">
       <c r="A8" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -10763,33 +10919,35 @@
         <v>14</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="J9" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="K9" s="18"/>
+        <v>207</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>209</v>
+      </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -11294,7 +11452,7 @@
     </row>
     <row r="11" s="30" customFormat="1" ht="21" customHeight="1" spans="1:256">
       <c r="A11" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -11577,33 +11735,35 @@
         <v>14</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="J12" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="K12" s="18"/>
+        <v>217</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>219</v>
+      </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
@@ -12108,7 +12268,7 @@
     </row>
     <row r="14" ht="21" customHeight="1" spans="1:255">
       <c r="A14" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -12390,27 +12550,27 @@
         <v>14</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="I15" s="48"/>
+        <v>226</v>
+      </c>
+      <c r="I15" s="49"/>
       <c r="J15" s="13"/>
       <c r="K15" s="18"/>
       <c r="L15" s="38"/>
@@ -12917,19 +13077,19 @@
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:255">
       <c r="A17" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>12</v>
@@ -13193,25 +13353,25 @@
         <v>14</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -13981,26 +14141,26 @@
         <v>4</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -14525,7 +14685,7 @@
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:255">
       <c r="A23" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="11">
         <v>22</v>
@@ -14541,7 +14701,7 @@
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23" s="13">
         <v>0.6</v>
@@ -14800,7 +14960,7 @@
     </row>
     <row r="24" ht="21" customHeight="1" spans="1:255">
       <c r="A24" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="11">
         <v>62.8</v>
@@ -14816,7 +14976,7 @@
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24" s="13">
         <v>0.9</v>
@@ -15075,7 +15235,7 @@
     </row>
     <row r="25" ht="21" customHeight="1" spans="1:255">
       <c r="A25" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="11">
         <v>431.7</v>
@@ -15091,7 +15251,7 @@
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H25" s="13">
         <v>4.8</v>
@@ -15368,7 +15528,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -15377,13 +15537,13 @@
         <v>12</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>12</v>
@@ -15391,7 +15551,7 @@
     </row>
     <row r="30" ht="19.5" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B30" s="9">
         <v>1000000000</v>
@@ -15414,7 +15574,7 @@
     </row>
     <row r="31" ht="19.5" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B31" s="9">
         <v>4000000000</v>
@@ -15437,7 +15597,7 @@
     </row>
     <row r="32" ht="19.5" spans="1:7">
       <c r="A32" s="3" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B32" s="9">
         <v>810341238</v>
@@ -15460,7 +15620,7 @@
     </row>
     <row r="33" ht="19.5" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B33" s="9">
         <v>810341238</v>
@@ -15483,7 +15643,7 @@
     </row>
     <row r="34" ht="19.5" spans="1:7">
       <c r="A34" s="35" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="3"/>
@@ -15502,13 +15662,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D38" s="42" t="s">
         <v>13</v>
@@ -15516,7 +15676,7 @@
     </row>
     <row r="39" ht="19.5" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B39" s="9">
         <v>1000000000</v>
@@ -15530,7 +15690,7 @@
     </row>
     <row r="40" ht="19.5" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B40" s="9">
         <v>4000000000</v>
@@ -15544,7 +15704,7 @@
     </row>
     <row r="41" ht="19.5" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B41" s="9">
         <v>3999984286</v>
@@ -15558,7 +15718,7 @@
     </row>
     <row r="42" ht="19.5" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B42" s="9">
         <v>167607893</v>
@@ -15572,7 +15732,7 @@
     </row>
     <row r="43" ht="19.5" spans="1:4">
       <c r="A43" s="35" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -15592,13 +15752,13 @@
     </row>
     <row r="46" ht="18" spans="1:10">
       <c r="A46" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>10</v>
@@ -15607,7 +15767,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>10</v>
@@ -15616,7 +15776,7 @@
         <v>8</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>10</v>
@@ -15627,31 +15787,31 @@
         <v>14</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" ht="19.5" spans="1:10">
@@ -15671,13 +15831,13 @@
     </row>
     <row r="52" ht="18" spans="1:10">
       <c r="A52" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>10</v>
@@ -15686,7 +15846,7 @@
         <v>8</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>10</v>
@@ -15695,7 +15855,7 @@
         <v>8</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>10</v>
@@ -15706,31 +15866,31 @@
         <v>14</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="H53" s="35" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="I53" s="35" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="J53" s="35" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" ht="19.5" spans="1:10">
@@ -15759,7 +15919,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="12" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -15785,7 +15945,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B59" s="10">
         <v>151.6</v>
@@ -16086,7 +16246,7 @@
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:253">
       <c r="A2" s="15" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -16857,13 +17017,13 @@
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:253">
       <c r="A5" s="16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="15"/>
       <c r="E5" s="17" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -17117,14 +17277,14 @@
     <row r="6" ht="27" customHeight="1" spans="1:253">
       <c r="A6" s="18"/>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>14</v>
@@ -17377,22 +17537,22 @@
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:253">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" s="19">
         <v>118582663</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F7" s="19">
         <v>10126189</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -17642,22 +17802,22 @@
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:253">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" s="19">
         <v>134433075</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F8" s="19">
         <v>10248428</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
@@ -17907,22 +18067,22 @@
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:253">
       <c r="A9" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" s="19">
         <v>120356840</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F9" s="19">
         <v>10205107</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -18172,22 +18332,22 @@
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:253">
       <c r="A10" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" s="19">
         <v>154078494</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F10" s="19">
         <v>10325903</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -18437,22 +18597,22 @@
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:253">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" s="19">
         <v>117450618</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F11" s="19">
         <v>1606813145</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -18702,22 +18862,22 @@
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:253">
       <c r="A12" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" s="19">
         <v>956833278</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F12" s="19">
         <v>16965048</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -18967,22 +19127,22 @@
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:253">
       <c r="A13" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" s="19">
         <v>167353645</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F13" s="19">
         <v>10205210</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -19232,22 +19392,22 @@
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:253">
       <c r="A14" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" s="19">
         <v>108991567</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F14" s="19">
         <v>22990586</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -19497,22 +19657,22 @@
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:253">
       <c r="A15" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" s="19">
         <v>177195683</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F15" s="19">
         <v>30303259</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -19762,22 +19922,22 @@
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:253">
       <c r="A16" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B16" s="19">
         <v>105821977</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F16" s="19">
         <v>33787917</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
@@ -20027,22 +20187,22 @@
     </row>
     <row r="17" ht="27" customHeight="1" spans="1:253">
       <c r="A17" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B17" s="19">
         <v>964964182</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F17" s="19">
         <v>828520283</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
@@ -20292,22 +20452,22 @@
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:253">
       <c r="A18" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B18" s="19">
         <v>165550290</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F18" s="19">
         <v>81349074</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
@@ -20557,22 +20717,22 @@
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:253">
       <c r="A19" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B19" s="19">
         <v>121836238</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F19" s="19">
         <v>30132773</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
@@ -20822,22 +20982,22 @@
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:253">
       <c r="A20" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B20" s="19">
         <v>266671929</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F20" s="19">
         <v>338893684</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -21087,22 +21247,22 @@
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:253">
       <c r="A21" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B21" s="19">
         <v>131904682</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F21" s="19">
         <v>30127389</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
@@ -21352,22 +21512,22 @@
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:253">
       <c r="A22" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B22" s="19">
         <v>149789031</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F22" s="19">
         <v>30016983</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
@@ -21617,22 +21777,22 @@
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:253">
       <c r="A23" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B23" s="19">
         <v>346741688</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F23" s="19">
         <v>828426078</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
@@ -21882,22 +22042,22 @@
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:253">
       <c r="A24" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B24" s="19">
         <v>171028004</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F24" s="19">
         <v>30175628</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
@@ -22147,22 +22307,22 @@
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:253">
       <c r="A25" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B25" s="19">
         <v>119484573</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F25" s="19">
         <v>10042177</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
@@ -22412,22 +22572,22 @@
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:253">
       <c r="A26" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B26" s="19">
         <v>181854606</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F26" s="19">
         <v>30341308</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
@@ -22932,7 +23092,7 @@
     </row>
     <row r="28" ht="27" customHeight="1" spans="1:253">
       <c r="A28" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -23190,7 +23350,7 @@
     <row r="29" ht="27" customHeight="1" spans="1:253">
       <c r="A29" s="24"/>
       <c r="B29" s="25" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>14</v>
@@ -23447,13 +23607,13 @@
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:253">
       <c r="A30" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B30" s="19">
         <v>117182547</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -23707,13 +23867,13 @@
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:253">
       <c r="A31" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B31" s="19">
         <v>10368995</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -23967,13 +24127,13 @@
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:253">
       <c r="A32" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B32" s="19">
         <v>61107370</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -24227,13 +24387,13 @@
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:253">
       <c r="A33" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B33" s="19">
         <v>30346388</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -24487,13 +24647,13 @@
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:253">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B34" s="19">
         <v>33432665</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -24747,13 +24907,13 @@
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:253">
       <c r="A35" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B35" s="19">
         <v>1626943113</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -25007,13 +25167,13 @@
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:253">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B36" s="19">
         <v>22579693</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -25267,13 +25427,13 @@
     </row>
     <row r="37" ht="27" customHeight="1" spans="1:253">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B37" s="19">
         <v>30286171</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -25527,13 +25687,13 @@
     </row>
     <row r="38" ht="27" customHeight="1" spans="1:253">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B38" s="19">
         <v>16686231</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -25787,13 +25947,13 @@
     </row>
     <row r="39" ht="27" customHeight="1" spans="1:253">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B39" s="19">
         <v>30132667</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
@@ -26047,13 +26207,13 @@
     </row>
     <row r="40" ht="27" customHeight="1" spans="1:253">
       <c r="A40" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B40" s="19">
         <v>30329186</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
@@ -26307,13 +26467,13 @@
     </row>
     <row r="41" ht="27" customHeight="1" spans="1:253">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B41" s="19">
         <v>828268037</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
@@ -26567,13 +26727,13 @@
     </row>
     <row r="42" ht="27" customHeight="1" spans="1:253">
       <c r="A42" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B42" s="19">
         <v>30497900</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
@@ -26827,13 +26987,13 @@
     </row>
     <row r="43" ht="27" customHeight="1" spans="1:253">
       <c r="A43" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B43" s="19">
         <v>10004289</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
@@ -27087,13 +27247,13 @@
     </row>
     <row r="44" ht="27" customHeight="1" spans="1:253">
       <c r="A44" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B44" s="19">
         <v>30703274</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
@@ -27347,13 +27507,13 @@
     </row>
     <row r="45" ht="27" customHeight="1" spans="1:253">
       <c r="A45" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B45" s="19">
         <v>10004830</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
@@ -27607,13 +27767,13 @@
     </row>
     <row r="46" ht="27" customHeight="1" spans="1:253">
       <c r="A46" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B46" s="19">
         <v>232272280</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
@@ -27867,13 +28027,13 @@
     </row>
     <row r="47" ht="27" customHeight="1" spans="1:253">
       <c r="A47" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B47" s="19">
         <v>808345115</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -28127,13 +28287,13 @@
     </row>
     <row r="48" ht="27" customHeight="1" spans="1:253">
       <c r="A48" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B48" s="19">
         <v>30303424</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -28387,13 +28547,13 @@
     </row>
     <row r="49" ht="27" customHeight="1" spans="1:253">
       <c r="A49" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B49" s="19">
         <v>10201929</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
@@ -29157,7 +29317,7 @@
     </row>
     <row r="52" ht="27" customHeight="1" spans="1:253">
       <c r="A52" s="17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -29415,7 +29575,7 @@
     <row r="53" ht="27" customHeight="1" spans="1:253">
       <c r="A53" s="18"/>
       <c r="B53" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>14</v>
@@ -29672,13 +29832,13 @@
     </row>
     <row r="54" ht="27" customHeight="1" spans="1:253">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B54" s="19">
         <v>200919452</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
@@ -29932,13 +30092,13 @@
     </row>
     <row r="55" ht="27" customHeight="1" spans="1:253">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B55" s="19">
         <v>199683640</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
@@ -30192,13 +30352,13 @@
     </row>
     <row r="56" ht="27" customHeight="1" spans="1:253">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B56" s="19">
         <v>201462559</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
@@ -30452,13 +30612,13 @@
     </row>
     <row r="57" ht="27" customHeight="1" spans="1:253">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B57" s="19">
         <v>199111109</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
@@ -30712,13 +30872,13 @@
     </row>
     <row r="58" ht="27" customHeight="1" spans="1:253">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B58" s="19">
         <v>198814542</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
@@ -30972,13 +31132,13 @@
     </row>
     <row r="59" ht="27" customHeight="1" spans="1:253">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B59" s="19">
         <v>199793674</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
@@ -31232,13 +31392,13 @@
     </row>
     <row r="60" ht="27" customHeight="1" spans="1:253">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B60" s="19">
         <v>201275806</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
@@ -31492,13 +31652,13 @@
     </row>
     <row r="61" ht="27" customHeight="1" spans="1:253">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B61" s="19">
         <v>199338518</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
@@ -31752,13 +31912,13 @@
     </row>
     <row r="62" ht="27" customHeight="1" spans="1:253">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B62" s="19">
         <v>198495152</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
@@ -32012,13 +32172,13 @@
     </row>
     <row r="63" ht="27" customHeight="1" spans="1:253">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B63" s="19">
         <v>201080670</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
@@ -32272,13 +32432,13 @@
     </row>
     <row r="64" ht="27" customHeight="1" spans="1:253">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B64" s="19">
         <v>200898560</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
@@ -32532,13 +32692,13 @@
     </row>
     <row r="65" ht="27" customHeight="1" spans="1:253">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B65" s="19">
         <v>199714803</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
@@ -32792,13 +32952,13 @@
     </row>
     <row r="66" ht="27" customHeight="1" spans="1:253">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B66" s="19">
         <v>201454643</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
@@ -33052,13 +33212,13 @@
     </row>
     <row r="67" ht="27" customHeight="1" spans="1:253">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B67" s="19">
         <v>199116753</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
@@ -33312,13 +33472,13 @@
     </row>
     <row r="68" ht="27" customHeight="1" spans="1:253">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B68" s="19">
         <v>198817526</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
@@ -33572,13 +33732,13 @@
     </row>
     <row r="69" ht="27" customHeight="1" spans="1:253">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B69" s="19">
         <v>200960014</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
@@ -33832,13 +33992,13 @@
     </row>
     <row r="70" ht="27" customHeight="1" spans="1:253">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B70" s="19">
         <v>199636589</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
@@ -34092,13 +34252,13 @@
     </row>
     <row r="71" ht="27" customHeight="1" spans="1:253">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B71" s="19">
         <v>201464941</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
@@ -34352,13 +34512,13 @@
     </row>
     <row r="72" ht="27" customHeight="1" spans="1:253">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B72" s="19">
         <v>199109475</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
@@ -34612,13 +34772,13 @@
     </row>
     <row r="73" ht="27" customHeight="1" spans="1:253">
       <c r="A73" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B73" s="19">
         <v>198835860</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
@@ -35127,13 +35287,13 @@
     </row>
     <row r="75" ht="27" customHeight="1" spans="1:253">
       <c r="A75" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="15"/>
       <c r="E75" s="16" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
@@ -35387,14 +35547,14 @@
     <row r="76" ht="27" customHeight="1" spans="1:253">
       <c r="A76" s="18"/>
       <c r="B76" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>14</v>
@@ -35647,22 +35807,22 @@
     </row>
     <row r="77" ht="27" customHeight="1" spans="1:253">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B77" s="19">
         <v>10126188</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F77" s="19">
         <v>10126188</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
@@ -35912,22 +36072,22 @@
     </row>
     <row r="78" ht="27" customHeight="1" spans="1:253">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B78" s="19">
         <v>10248428</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F78" s="19">
         <v>10248428</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
@@ -36177,22 +36337,22 @@
     </row>
     <row r="79" ht="27" customHeight="1" spans="1:253">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B79" s="19">
         <v>10205105</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F79" s="19">
         <v>10205105</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="I79" s="15"/>
       <c r="J79" s="15"/>
@@ -36442,22 +36602,22 @@
     </row>
     <row r="80" ht="27" customHeight="1" spans="1:253">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B80" s="19">
         <v>10325902</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F80" s="19">
         <v>10325902</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="15"/>
@@ -36707,22 +36867,22 @@
     </row>
     <row r="81" ht="27" customHeight="1" spans="1:253">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B81" s="19">
         <v>12212696</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F81" s="19">
         <v>12212696</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="I81" s="15"/>
       <c r="J81" s="15"/>
@@ -36972,22 +37132,22 @@
     </row>
     <row r="82" ht="27" customHeight="1" spans="1:253">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B82" s="19">
         <v>16963509</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F82" s="19">
         <v>16963509</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="15"/>
@@ -37237,22 +37397,22 @@
     </row>
     <row r="83" ht="27" customHeight="1" spans="1:253">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B83" s="19">
         <v>10205207</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F83" s="19">
         <v>10205207</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="I83" s="15"/>
       <c r="J83" s="15"/>
@@ -37502,22 +37662,22 @@
     </row>
     <row r="84" ht="27" customHeight="1" spans="1:253">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B84" s="19">
         <v>22958835</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F84" s="19">
         <v>22958835</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
@@ -37767,22 +37927,22 @@
     </row>
     <row r="85" ht="27" customHeight="1" spans="1:253">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B85" s="19">
         <v>30301481</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F85" s="19">
         <v>30301481</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="15"/>
@@ -38032,22 +38192,22 @@
     </row>
     <row r="86" ht="27" customHeight="1" spans="1:253">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B86" s="19">
         <v>33774243</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F86" s="19">
         <v>33774243</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="I86" s="15"/>
       <c r="J86" s="15"/>
@@ -38297,22 +38457,22 @@
     </row>
     <row r="87" ht="27" customHeight="1" spans="1:253">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B87" s="19">
         <v>31218362</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F87" s="19">
         <v>31218362</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="I87" s="15"/>
       <c r="J87" s="15"/>
@@ -38562,22 +38722,22 @@
     </row>
     <row r="88" ht="27" customHeight="1" spans="1:253">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B88" s="19">
         <v>81282420</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F88" s="19">
         <v>81282420</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="I88" s="15"/>
       <c r="J88" s="15"/>
@@ -38827,22 +38987,22 @@
     </row>
     <row r="89" ht="27" customHeight="1" spans="1:253">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B89" s="19">
         <v>30131027</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F89" s="19">
         <v>30131027</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="I89" s="15"/>
       <c r="J89" s="15"/>
@@ -39092,22 +39252,22 @@
     </row>
     <row r="90" ht="27" customHeight="1" spans="1:253">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B90" s="19">
         <v>338592708</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F90" s="19">
         <v>338592708</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="15"/>
@@ -39357,22 +39517,22 @@
     </row>
     <row r="91" ht="27" customHeight="1" spans="1:253">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B91" s="19">
         <v>30125599</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F91" s="19">
         <v>30125599</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="I91" s="15"/>
       <c r="J91" s="15"/>
@@ -39622,22 +39782,22 @@
     </row>
     <row r="92" ht="27" customHeight="1" spans="1:253">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B92" s="19">
         <v>30015165</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E92" s="29" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F92" s="19">
         <v>30015165</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
@@ -39887,22 +40047,22 @@
     </row>
     <row r="93" ht="27" customHeight="1" spans="1:253">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B93" s="19">
         <v>31124177</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E93" s="29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F93" s="19">
         <v>31124177</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="I93" s="15"/>
       <c r="J93" s="15"/>
@@ -40152,22 +40312,22 @@
     </row>
     <row r="94" ht="27" customHeight="1" spans="1:253">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B94" s="19">
         <v>30173780</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F94" s="19">
         <v>30173780</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
@@ -40417,22 +40577,22 @@
     </row>
     <row r="95" ht="27" customHeight="1" spans="1:253">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" s="19">
         <v>10042177</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F95" s="19">
         <v>10042177</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
@@ -40682,22 +40842,22 @@
     </row>
     <row r="96" ht="27" customHeight="1" spans="1:253">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B96" s="19">
         <v>30339475</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F96" s="19">
         <v>30339475</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="I96" s="15"/>
       <c r="J96" s="15"/>
@@ -40973,19 +41133,19 @@
   <sheetData>
     <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -41007,7 +41167,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="11">
         <v>23.85</v>
@@ -41024,7 +41184,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="11">
         <v>54.3</v>
@@ -41041,7 +41201,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" s="11">
         <v>400.7</v>
@@ -41058,19 +41218,19 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -41092,7 +41252,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="11">
         <v>22</v>
@@ -41109,7 +41269,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="11">
         <v>62.8</v>
@@ -41126,7 +41286,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="11">
         <v>431.7</v>
@@ -41143,21 +41303,21 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="12" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -41176,7 +41336,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" s="13">
         <v>0.6</v>
@@ -41190,7 +41350,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B50" s="13">
         <v>0.9</v>
@@ -41204,7 +41364,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B51" s="13">
         <v>4.8</v>
@@ -41218,21 +41378,21 @@
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="12" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="11" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -41251,7 +41411,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B77" s="11">
         <v>0.6</v>
@@ -41265,7 +41425,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B78" s="11">
         <v>0.85</v>
@@ -41279,7 +41439,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B79" s="11">
         <v>5.6</v>
@@ -41319,12 +41479,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:5">
@@ -41333,18 +41493,18 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" ht="19.5" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4">
         <v>117638487</v>
@@ -41358,13 +41518,13 @@
     </row>
     <row r="7" ht="19.5" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B7" s="5">
         <v>132840790</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D7" s="5">
         <v>199288073</v>
@@ -41372,7 +41532,7 @@
     </row>
     <row r="8" ht="19.5" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B8" s="5">
         <v>119838342</v>
@@ -41386,7 +41546,7 @@
     </row>
     <row r="9" ht="19.5" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B9" s="5">
         <v>150513176</v>
@@ -41400,7 +41560,7 @@
     </row>
     <row r="10" ht="19.5" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B10" s="5">
         <v>115966768</v>
@@ -41414,7 +41574,7 @@
     </row>
     <row r="11" ht="19.5" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B11" s="5">
         <v>433191195</v>
@@ -41428,7 +41588,7 @@
     </row>
     <row r="12" ht="19.5" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B12" s="5">
         <v>160335384</v>
@@ -41442,7 +41602,7 @@
     </row>
     <row r="13" ht="19.5" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B13" s="5">
         <v>108301120</v>
@@ -41456,7 +41616,7 @@
     </row>
     <row r="14" ht="19.5" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B14" s="5">
         <v>175086630</v>
@@ -41470,7 +41630,7 @@
     </row>
     <row r="15" ht="19.5" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B15" s="5">
         <v>105033635</v>
@@ -41484,7 +41644,7 @@
     </row>
     <row r="16" ht="19.5" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B16" s="5">
         <v>931231263</v>
@@ -41498,7 +41658,7 @@
     </row>
     <row r="17" ht="19.5" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B17" s="5">
         <v>157665218</v>
@@ -41512,7 +41672,7 @@
     </row>
     <row r="18" ht="19.5" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B18" s="5">
         <v>120801641</v>
@@ -41526,7 +41686,7 @@
     </row>
     <row r="19" ht="19.5" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5">
         <v>256547769</v>
@@ -41540,7 +41700,7 @@
     </row>
     <row r="20" ht="19.5" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5">
         <v>130335158</v>
@@ -41554,7 +41714,7 @@
     </row>
     <row r="21" ht="19.5" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B21" s="5">
         <v>148617661</v>
@@ -41568,7 +41728,7 @@
     </row>
     <row r="22" ht="19.5" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B22" s="5">
         <v>339858259</v>
@@ -41582,7 +41742,7 @@
     </row>
     <row r="23" ht="19.5" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B23" s="5">
         <v>170647805</v>
@@ -41596,7 +41756,7 @@
     </row>
     <row r="24" ht="19.5" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B24" s="5">
         <v>118565721</v>
@@ -41610,7 +41770,7 @@
     </row>
     <row r="25" ht="19.5" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B25" s="5">
         <v>182291801</v>
@@ -41624,7 +41784,7 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" ht="25.35" customHeight="1" spans="1:5">
@@ -41633,18 +41793,18 @@
         <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" ht="19.5" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B32" s="8">
         <v>118582663</v>
@@ -41661,7 +41821,7 @@
     </row>
     <row r="33" ht="19.5" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B33" s="9">
         <v>134433075</v>
@@ -41678,7 +41838,7 @@
     </row>
     <row r="34" ht="19.5" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B34" s="9">
         <v>120356840</v>
@@ -41695,7 +41855,7 @@
     </row>
     <row r="35" ht="19.5" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B35" s="9">
         <v>154078494</v>
@@ -41712,7 +41872,7 @@
     </row>
     <row r="36" ht="19.5" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B36" s="9">
         <v>117450618</v>
@@ -41729,7 +41889,7 @@
     </row>
     <row r="37" ht="19.5" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B37" s="9">
         <v>956833278</v>
@@ -41746,7 +41906,7 @@
     </row>
     <row r="38" ht="19.5" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B38" s="9">
         <v>167353645</v>
@@ -41763,7 +41923,7 @@
     </row>
     <row r="39" ht="19.5" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B39" s="9">
         <v>108991567</v>
@@ -41780,7 +41940,7 @@
     </row>
     <row r="40" ht="19.5" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B40" s="9">
         <v>177195683</v>
@@ -41797,7 +41957,7 @@
     </row>
     <row r="41" ht="19.5" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B41" s="9">
         <v>105821977</v>
@@ -41814,7 +41974,7 @@
     </row>
     <row r="42" ht="19.5" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B42" s="9">
         <v>964964182</v>
@@ -41831,7 +41991,7 @@
     </row>
     <row r="43" ht="19.5" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B43" s="9">
         <v>165550290</v>
@@ -41848,7 +42008,7 @@
     </row>
     <row r="44" ht="19.5" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B44" s="9">
         <v>121836238</v>
@@ -41865,7 +42025,7 @@
     </row>
     <row r="45" ht="19.5" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B45" s="9">
         <v>266671929</v>
@@ -41882,7 +42042,7 @@
     </row>
     <row r="46" ht="19.5" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B46" s="9">
         <v>131904682</v>
@@ -41899,7 +42059,7 @@
     </row>
     <row r="47" ht="19.5" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B47" s="9">
         <v>149789031</v>
@@ -41916,7 +42076,7 @@
     </row>
     <row r="48" ht="19.5" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B48" s="9">
         <v>346741688</v>
@@ -41933,7 +42093,7 @@
     </row>
     <row r="49" ht="19.5" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B49" s="9">
         <v>171028004</v>
@@ -41950,7 +42110,7 @@
     </row>
     <row r="50" ht="19.5" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B50" s="9">
         <v>119484573</v>
@@ -41967,7 +42127,7 @@
     </row>
     <row r="51" ht="19.5" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B51" s="9">
         <v>181854606</v>
@@ -41984,7 +42144,7 @@
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="2:8">
@@ -42010,7 +42170,7 @@
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C65" s="10">
         <v>151.6</v>
